--- a/SCH-STH/Impact assessments/Burkina Faso/bf_202301_sch_impact_assessment_3_resultat_selles.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/bf_202301_sch_impact_assessment_3_resultat_selles.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>type</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t xml:space="preserve">Code site</t>
+  </si>
+  <si>
+    <t>regex(.,'^[A-Z]{3}$')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 prmières letrre du village en lettre majuscule</t>
   </si>
   <si>
     <t>integer</t>
@@ -639,7 +645,7 @@
     <numFmt numFmtId="162" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="163" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -777,6 +783,11 @@
       <color theme="1"/>
       <sz val="12.000000"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color indexed="64"/>
+      <sz val="12.000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1265,7 +1276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="19" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1279,10 +1290,13 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="33" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1296,7 +1310,7 @@
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="23" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -1306,7 +1320,7 @@
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="23" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="24" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2052,7 +2066,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" ht="16.5">
+    <row r="7" ht="49.5">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -2062,7 +2076,12 @@
       <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
         <v>17</v>
@@ -2072,20 +2091,20 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -2096,19 +2115,19 @@
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="9" t="s">
-        <v>42</v>
+      <c r="G9" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="5"/>
@@ -2123,10 +2142,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -2137,13 +2156,13 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -2151,16 +2170,16 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -2168,16 +2187,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
@@ -2188,13 +2207,13 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>48</v>
+        <v>58</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -2202,16 +2221,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -2219,16 +2238,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
@@ -2236,16 +2255,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -2253,16 +2272,16 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -2270,16 +2289,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -2287,16 +2306,16 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>59</v>
+        <v>71</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -2307,13 +2326,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>48</v>
+        <v>73</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -2321,16 +2340,16 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
@@ -2338,16 +2357,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
@@ -2355,16 +2374,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>74</v>
+        <v>80</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
@@ -2372,16 +2391,16 @@
     </row>
     <row r="25" ht="15.300000000000001" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>74</v>
+        <v>82</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
@@ -2389,16 +2408,16 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="J26" t="s">
         <v>17</v>
@@ -2406,16 +2425,16 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
@@ -2423,29 +2442,29 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
@@ -2480,1260 +2499,1260 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="14"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" s="16" customFormat="1"/>
+    <row r="11">
+      <c r="A11" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" s="15" customFormat="1"/>
-    <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>93</v>
-      </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="A12" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" s="16" customFormat="1">
+      <c r="A14" s="17"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="14" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" s="15" customFormat="1">
-      <c r="A14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" s="15" customFormat="1">
-      <c r="A22" s="16"/>
+    </row>
+    <row r="22" s="16" customFormat="1">
+      <c r="A22" s="17"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" s="15" customFormat="1">
-      <c r="A25" s="17"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" s="16" customFormat="1">
+      <c r="A25" s="18"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E63" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E64" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E68" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E69" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E72" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C75" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C77" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E77" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C78" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E79" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C80" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E80" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E81" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B82" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E82" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C83" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E83" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C84" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E84" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C85" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E85" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E86" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E87" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E88" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E89" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E90" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C91" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E91" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C92" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E92" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E93" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C94" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E94" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E95" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3766,28 +3785,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="14" t="s">
-        <v>197</v>
+      <c r="A1" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="A2" s="18" t="s">
-        <v>201</v>
+      <c r="A2" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>

--- a/SCH-STH/Impact assessments/Burkina Faso/bf_202301_sch_impact_assessment_3_resultat_selles.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/bf_202301_sch_impact_assessment_3_resultat_selles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="203">
   <si>
     <t>type</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Nombre d'œufs S.mansoni pour la lame B</t>
   </si>
   <si>
-    <t>${d_EchantillionpositifSM} = '2_oui'</t>
-  </si>
-  <si>
     <t>d_EchantillionpositifSTH</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
     <t>L'échantillon d’urine traité est-il positif aux autres germes</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>d_nom1</t>
   </si>
   <si>
@@ -273,9 +273,6 @@
     <t>Nombre d'œufs autre2 pour la lame B</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>commentaires</t>
   </si>
   <si>
@@ -621,10 +618,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(BF - Jan 2023) impact schisto - 3. Formulaire Resultats Selles V2</t>
-  </si>
-  <si>
-    <t>bf_202301_sch_impact_assessment_3_resultat_selles_v2</t>
+    <t>(BF - Jan 2023) impact schisto - 3. Formulaire Resultats Selles V2.1</t>
+  </si>
+  <si>
+    <t>bf_202301_sch_impact_assessment_3_resultat_selles_v2_1</t>
   </si>
   <si>
     <t>French</t>
@@ -635,9 +632,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -696,17 +693,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color indexed="20"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -714,6 +703,22 @@
     <font>
       <sz val="11"/>
       <color indexed="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -727,16 +732,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color indexed="65"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -750,39 +770,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -802,9 +792,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -846,8 +843,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
@@ -858,14 +867,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
@@ -876,44 +909,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
@@ -924,8 +921,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
@@ -936,20 +939,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
@@ -966,14 +975,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
@@ -984,26 +993,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -1014,8 +1011,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
@@ -1049,6 +1046,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1060,24 +1081,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,17 +1100,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,162 +1143,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1633,8 +1630,8 @@
   <sheetPr/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25"/>
@@ -1901,7 +1898,7 @@
         <v>53</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -1912,10 +1909,10 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>48</v>
@@ -1929,13 +1926,13 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="H14" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -1946,13 +1943,13 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
       <c r="H15" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -1963,13 +1960,13 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
       <c r="H16" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
@@ -1980,13 +1977,13 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
       <c r="H17" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -1997,13 +1994,13 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
       <c r="H18" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -2014,13 +2011,13 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
       <c r="H19" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -2031,10 +2028,10 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>48</v>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="11" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -2096,7 +2093,7 @@
     </row>
     <row r="24" ht="15.3" customHeight="1" spans="1:10">
       <c r="A24" s="11" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>79</v>
@@ -2147,29 +2144,29 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
         <v>85</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
         <v>88</v>
-      </c>
-      <c r="B28" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
         <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -2202,7 +2199,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2211,122 +2208,122 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1"/>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2335,13 +2332,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2353,100 +2350,100 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
         <v>112</v>
       </c>
-      <c r="C20" t="s">
-        <v>113</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
         <v>114</v>
       </c>
-      <c r="C21" t="s">
-        <v>115</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" spans="1:1">
@@ -2454,24 +2451,24 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
         <v>116</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
         <v>119</v>
-      </c>
-      <c r="C24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:1">
@@ -2479,982 +2476,982 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
         <v>121</v>
       </c>
-      <c r="B26" t="s">
-        <v>122</v>
-      </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
         <v>125</v>
       </c>
-      <c r="C29" t="s">
-        <v>126</v>
-      </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
         <v>127</v>
       </c>
-      <c r="C30" t="s">
-        <v>128</v>
-      </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
         <v>131</v>
       </c>
-      <c r="C33" t="s">
-        <v>132</v>
-      </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
         <v>134</v>
       </c>
-      <c r="C35" t="s">
-        <v>135</v>
-      </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
         <v>136</v>
       </c>
-      <c r="C36" t="s">
-        <v>137</v>
-      </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" t="s">
         <v>142</v>
       </c>
-      <c r="C41" t="s">
-        <v>143</v>
-      </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" t="s">
         <v>153</v>
       </c>
-      <c r="C51" t="s">
-        <v>154</v>
-      </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3473,8 +3470,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -3485,27 +3482,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
         <v>197</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>198</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
         <v>201</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>202</v>
-      </c>
-      <c r="C2" t="s">
-        <v>203</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>

--- a/SCH-STH/Impact assessments/Burkina Faso/bf_202301_sch_impact_assessment_3_resultat_selles.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/bf_202301_sch_impact_assessment_3_resultat_selles.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55F30C5-F7FC-44DD-9621-1D4A88FDC2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="202">
   <si>
     <t>type</t>
   </si>
@@ -153,15 +159,9 @@
     <t>d_Echantilliontraite</t>
   </si>
   <si>
-    <t>Un échantillon d’urine a-t-il été traité au labo</t>
-  </si>
-  <si>
     <t>d_EchantillionpositifSM</t>
   </si>
   <si>
-    <t>L'échantillon d’urine traité est-il positif au mansoni</t>
-  </si>
-  <si>
     <t>${d_Echantilliontraite} = '1_oui'</t>
   </si>
   <si>
@@ -183,9 +183,6 @@
     <t>d_EchantillionpositifSTH</t>
   </si>
   <si>
-    <t>L'échantillon d’urine traité est-il positif aux STH</t>
-  </si>
-  <si>
     <t>d_Oeufs_AscarisA</t>
   </si>
   <si>
@@ -204,33 +201,18 @@
     <t>d_Oeufs_AnkA</t>
   </si>
   <si>
-    <t>Nombre d'œufs d'Ankylostome pour la lame A</t>
-  </si>
-  <si>
     <t>d_Oeufs_AnkB</t>
   </si>
   <si>
-    <t>Nombre d'œufs d'Ankylostome  pour la lame B</t>
-  </si>
-  <si>
     <t>d_Oeufs_trichurisA</t>
   </si>
   <si>
-    <t>Nombre d'œufs de Trichocéphale trichura pour la lame A</t>
-  </si>
-  <si>
     <t>d_Oeufs_trichurisB</t>
   </si>
   <si>
-    <t>Nombre d'œufs Trichocéphale trichura   pour la lame B</t>
-  </si>
-  <si>
     <t>d_EchantillionpositifAutre</t>
   </si>
   <si>
-    <t>L'échantillon d’urine traité est-il positif aux autres germes</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -351,9 +333,6 @@
     <t>Karangasso-vigue</t>
   </si>
   <si>
-    <t>NDorola</t>
-  </si>
-  <si>
     <t>N'Dorola</t>
   </si>
   <si>
@@ -546,12 +525,6 @@
     <t>TIARAKO</t>
   </si>
   <si>
-    <t>FOFARA</t>
-  </si>
-  <si>
-    <t>N'GORLANI</t>
-  </si>
-  <si>
     <t>KOKORO</t>
   </si>
   <si>
@@ -561,12 +534,6 @@
     <t>SADINA</t>
   </si>
   <si>
-    <t>MOROLABA</t>
-  </si>
-  <si>
-    <t>TEMETEMESSO</t>
-  </si>
-  <si>
     <t>FADONA</t>
   </si>
   <si>
@@ -618,26 +585,56 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(BF - Jan 2023) impact schisto - 3. Formulaire Resultats Selles V2.1</t>
-  </si>
-  <si>
-    <t>bf_202301_sch_impact_assessment_3_resultat_selles_v2_1</t>
-  </si>
-  <si>
     <t>French</t>
+  </si>
+  <si>
+    <t>Un échantillon des selles a-t-il été traité au labo</t>
+  </si>
+  <si>
+    <t>L'échantillon des selles traité est-il positif au mansoni</t>
+  </si>
+  <si>
+    <t>L'échantillon des selles traité est-il positif aux STH</t>
+  </si>
+  <si>
+    <t>L'échantillon des selles traité est-il positif aux autres germes</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs d'Ancylostoma duodenale pour la lame A</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs d'Ancylostoma duodenale  pour la lame B</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs de Trichuris trichiura pour la lame A</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs Trichuris trichiura pour la lame B</t>
+  </si>
+  <si>
+    <t>(BF - Jan 2023) impact schisto - 3. Formulaire Resultats Selles V3</t>
+  </si>
+  <si>
+    <t>bf_202301_sch_impact_assessment_3_resultat_selles_v3</t>
+  </si>
+  <si>
+    <t>Fara</t>
+  </si>
+  <si>
+    <t>Foulasso</t>
+  </si>
+  <si>
+    <t>Kodona</t>
+  </si>
+  <si>
+    <t>Seguedougou</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,137 +689,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,188 +709,8 @@
         <bgColor indexed="5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor theme="8" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1032,264 +720,22 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1330,61 +776,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -1405,7 +803,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1413,6 +811,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1622,34 +1023,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.6833333333333" customWidth="1"/>
-    <col min="3" max="3" width="57.4166666666667" customWidth="1"/>
-    <col min="4" max="4" width="13.1" customWidth="1"/>
-    <col min="5" max="5" width="11.4166666666667" customWidth="1"/>
-    <col min="6" max="6" width="24.6833333333333" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="32.575" customWidth="1"/>
-    <col min="9" max="9" width="33.6833333333333" customWidth="1"/>
-    <col min="11" max="11" width="41.1" customWidth="1"/>
-    <col min="13" max="13" width="13.6833333333333" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="18" spans="1:14">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="18.75">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1707,7 +1108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
@@ -1721,7 +1122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1746,7 +1147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14" ht="15.75">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -1768,7 +1169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" ht="42.75" spans="1:13">
+    <row r="6" spans="1:14" ht="47.25">
       <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
@@ -1792,7 +1193,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:14">
       <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
@@ -1812,7 +1213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="42.75" spans="1:14">
+    <row r="8" spans="1:14" ht="45">
       <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
@@ -1839,7 +1240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1847,126 +1248,126 @@
         <v>44</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:14">
       <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:14">
       <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:14">
       <c r="A14" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:14">
       <c r="A15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:14">
       <c r="A16" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
@@ -1977,13 +1378,13 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -1994,13 +1395,13 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -2011,13 +1412,13 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -2028,13 +1429,13 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -2042,16 +1443,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -2062,13 +1463,13 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
@@ -2079,30 +1480,30 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" ht="15.3" customHeight="1" spans="1:10">
+    <row r="24" spans="1:10" ht="15.4" customHeight="1">
       <c r="A24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
@@ -2113,13 +1514,13 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
@@ -2130,76 +1531,74 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:10">
       <c r="A27" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.3166666666667" customWidth="1"/>
-    <col min="2" max="2" width="39.6833333333333" customWidth="1"/>
-    <col min="3" max="3" width="19.1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2208,1301 +1607,1295 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C15" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C16" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
         <v>98</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
         <v>99</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
         <v>100</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C20" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D20" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
         <v>101</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C21" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D21" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
         <v>102</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C22" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" s="3" customFormat="1"/>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D22" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
         <v>103</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C23" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C24" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:1">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:1">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:1">
-      <c r="A25" s="7"/>
+      <c r="D24" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="3" customFormat="1">
+      <c r="A25" s="6"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
         <v>120</v>
       </c>
-      <c r="B32" t="s">
-        <v>129</v>
-      </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E63" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E64" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E65" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E68" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E69" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E70" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E73" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="E76" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="C77" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E77" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E78" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E79" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E80" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C81" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E81" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="E82" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B83" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E83" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E84" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E85" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E86" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E87" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E88" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E89" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E90" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E91" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E92" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E93" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E94" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E95" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F25">
-    <sortCondition ref="A23:A25"/>
-    <sortCondition ref="B23:B25"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62.125" customWidth="1"/>
-    <col min="2" max="2" width="50.25" customWidth="1"/>
+    <col min="1" max="1" width="62.140625" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>197</v>
       </c>
-      <c r="C1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" t="s">
-        <v>201</v>
-      </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -3510,7 +2903,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>